--- a/AI_genegator/тексты коллекций_try.xlsx
+++ b/AI_genegator/тексты коллекций_try.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Documents\GitHub\Data-analyzis\AI_genegator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D02D476-0869-4F06-BD1A-CAD2762E0F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C4FA2D-8DAC-4625-8C9F-5A8BE1993B09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,7 +560,7 @@
   <dimension ref="A1:E17928"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
